--- a/Planit_Assesment_Mahesh/Inputs/Testdata.xlsx
+++ b/Planit_Assesment_Mahesh/Inputs/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Photon_Automation\Planit_Assesment_Mahesh\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32F93A-6223-4AAC-A706-116D2C255E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC0F36-D4D5-4B73-8FDF-4528CABB8373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
